--- a/data-excel/Tranh-so-hoa-1.xlsx
+++ b/data-excel/Tranh-so-hoa-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790" activeTab="10"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790"/>
   </bookViews>
   <sheets>
     <sheet name="phat" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,7 @@
     <sheet name="dong-vat" sheetId="6" r:id="rId8"/>
     <sheet name="hoat-hinh" sheetId="11" r:id="rId9"/>
     <sheet name="cung-hoang-dao" sheetId="12" r:id="rId10"/>
-    <sheet name="chua" sheetId="14" r:id="rId11"/>
-    <sheet name="mater" sheetId="4" r:id="rId12"/>
+    <sheet name="mater" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
   <si>
     <t>Tên</t>
   </si>
@@ -58,9 +57,6 @@
     <t>Đường dẫn</t>
   </si>
   <si>
-    <t>colorNumber</t>
-  </si>
-  <si>
     <t>Số màu</t>
   </si>
   <si>
@@ -403,13 +399,28 @@
     <t>KM017</t>
   </si>
   <si>
-    <t>Chúa 01</t>
-  </si>
-  <si>
-    <t>KM011</t>
-  </si>
-  <si>
-    <t>Chúa toả hào quang</t>
+    <t>Mã Kami</t>
+  </si>
+  <si>
+    <t>Nổi bật</t>
+  </si>
+  <si>
+    <t>outstanding</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>shoppe_code</t>
+  </si>
+  <si>
+    <t>kami_code</t>
+  </si>
+  <si>
+    <t>color_number</t>
+  </si>
+  <si>
+    <t>Thứ tự ưu tiên</t>
   </si>
 </sst>
 </file>
@@ -467,12 +478,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,24 +776,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" hidden="1">
+    <row r="1" spans="1:12" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -784,19 +811,31 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -808,22 +847,31 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -832,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D11" si="0">"/img/phat/P_"&amp;B3&amp;".jpg"</f>
@@ -840,13 +888,19 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>175000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -855,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -865,16 +919,22 @@
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>175000</v>
       </c>
-      <c r="I4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -883,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -893,16 +953,22 @@
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>175000</v>
       </c>
-      <c r="I5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -911,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -919,13 +985,19 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>200000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -934,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -944,16 +1016,22 @@
         <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>175000</v>
       </c>
-      <c r="I7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -962,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -972,16 +1050,22 @@
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>175000</v>
       </c>
-      <c r="I8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -990,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -998,13 +1082,19 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>200000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1013,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1021,13 +1111,19 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>200000</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1036,7 +1132,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1047,8 +1143,9 @@
       <c r="G11">
         <v>205000</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1057,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ref="D12:D13" si="2">"/img/phat/P_"&amp;B12&amp;".jpg"</f>
@@ -1067,16 +1164,17 @@
         <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>175000</v>
       </c>
-      <c r="I12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="5"/>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1085,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1095,16 +1193,17 @@
         <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>175000</v>
       </c>
-      <c r="I13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="5"/>
+      <c r="K13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1113,7 +1212,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ref="D14" si="3">"/img/phat/P_"&amp;B14&amp;".jpg"</f>
@@ -1123,16 +1222,17 @@
         <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>175000</v>
       </c>
-      <c r="I14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="5"/>
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1141,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" ref="D15" si="4">"/img/phat/P_"&amp;B15&amp;".jpg"</f>
@@ -1149,13 +1249,14 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>175000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="F16" s="1"/>
@@ -1334,11 +1435,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1348,63 +1447,112 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="2" t="str">
+        <f>phat!A1</f>
+        <v>flg</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>phat!B1</f>
+        <v>id</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>phat!C1</f>
+        <v>name</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>phat!D1</f>
+        <v>link</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>phat!E1</f>
+        <v>color_number</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>phat!F1</f>
+        <v>size</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>phat!G1</f>
+        <v>price</v>
+      </c>
+      <c r="H1" s="6" t="str">
+        <f>phat!H1</f>
+        <v>quantity</v>
+      </c>
+      <c r="I1" s="6" t="str">
+        <f>phat!I1</f>
+        <v>outstanding</v>
+      </c>
+      <c r="J1" s="6" t="str">
+        <f>phat!J1</f>
+        <v>order</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <f>phat!K1</f>
+        <v>shoppe_code</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f>phat!L1</f>
+        <v>kami_code</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <f>phat!A2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="2" t="str">
+        <f>phat!B2</f>
+        <v>STT</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>phat!C2</f>
+        <v>Tên</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>phat!D2</f>
+        <v>Đường dẫn</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>phat!E2</f>
+        <v>Số màu</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>phat!F2</f>
+        <v>Kích thước</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>phat!G2</f>
+        <v>Giá</v>
+      </c>
+      <c r="H2" s="6" t="str">
+        <f>phat!H2</f>
+        <v>Số lượng</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>phat!I2</f>
+        <v>Nổi bật</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>phat!J2</f>
+        <v>Thứ tự ưu tiên</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>phat!K2</f>
+        <v>Mã shoppe</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>phat!L2</f>
+        <v>Mã Kami</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1413,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/cung-hoang-dao/CHD_"&amp;B3&amp;".jpg"</f>
@@ -1424,8 +1572,14 @@
       <c r="G3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1434,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>"/img/cung-hoang-dao/CHD_"&amp;B4&amp;".jpg"</f>
@@ -1445,8 +1599,14 @@
       <c r="G4">
         <v>200000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1455,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>"/img/cung-hoang-dao/CHD_"&amp;B5&amp;".jpg"</f>
@@ -1466,8 +1626,14 @@
       <c r="G5">
         <v>200000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1475,7 +1641,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1483,47 +1649,47 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="F16" s="1"/>
@@ -1690,11 +1856,62 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X48"/>
+  <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1704,78 +1921,113 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" hidden="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="2" t="str">
+        <f>phat!A1</f>
+        <v>flg</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>phat!B1</f>
+        <v>id</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>phat!C1</f>
+        <v>name</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>phat!D1</f>
+        <v>link</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>phat!E1</f>
+        <v>color_number</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>phat!F1</f>
+        <v>size</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>phat!G1</f>
+        <v>price</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>phat!H1</f>
+        <v>quantity</v>
+      </c>
+      <c r="I1" s="6" t="str">
+        <f>phat!I1</f>
+        <v>outstanding</v>
+      </c>
+      <c r="J1" s="6" t="str">
+        <f>phat!J1</f>
+        <v>order</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <f>phat!K1</f>
+        <v>shoppe_code</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f>phat!L1</f>
+        <v>kami_code</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <f>phat!A2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="B2" s="2" t="str">
+        <f>phat!B2</f>
+        <v>STT</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>phat!C2</f>
+        <v>Tên</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>phat!D2</f>
+        <v>Đường dẫn</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>phat!E2</f>
+        <v>Số màu</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>phat!F2</f>
+        <v>Kích thước</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>phat!G2</f>
+        <v>Giá</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>phat!H2</f>
+        <v>Số lượng</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>phat!I2</f>
+        <v>Nổi bật</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>phat!J2</f>
+        <v>Thứ tự ưu tiên</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>phat!K2</f>
+        <v>Mã shoppe</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>phat!L2</f>
+        <v>Mã Kami</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1784,887 +2036,508 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>"/img/chua/C_"&amp;B3&amp;".jpg"</f>
-        <v>/img/chua/C_1.jpg</v>
-      </c>
-      <c r="E3" s="1">
-        <v>25</v>
-      </c>
+        <f>"/img/phong-canh/PC_"&amp;B3&amp;".jpg"</f>
+        <v>/img/phong-canh/PC_1.jpg</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>175000</v>
-      </c>
-      <c r="I3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>130000</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B4:B20" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>"/img/chua/C_"&amp;B4&amp;".jpg"</f>
-        <v>/img/chua/C_2.jpg</v>
+        <f t="shared" ref="D4:D9" si="1">"/img/phong-canh/PC_"&amp;B4&amp;".jpg"</f>
+        <v>/img/phong-canh/PC_2.jpg</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G4">
         <v>175000</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="I4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/img/phong-canh/PC_3.jpg</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>135000</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/img/phong-canh/PC_4.jpg</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>135000</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/img/phong-canh/PC_5.jpg</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>135000</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/img/phong-canh/PC_6.jpg</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>175000</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/img/phong-canh/PC_7.jpg</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>135000</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" ref="D10" si="2">"/img/phong-canh/PC_"&amp;B10&amp;".jpg"</f>
+        <v>/img/phong-canh/PC_8.jpg</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>180000</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" ref="D11" si="3">"/img/phong-canh/PC_"&amp;B11&amp;".jpg"</f>
+        <v>/img/phong-canh/PC_9.jpg</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" ref="D12" si="4">"/img/phong-canh/PC_"&amp;B12&amp;".jpg"</f>
+        <v>/img/phong-canh/PC_10.jpg</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" ref="D13" si="5">"/img/phong-canh/PC_"&amp;B13&amp;".jpg"</f>
+        <v>/img/phong-canh/PC_11.jpg</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ref="D14" si="6">"/img/phong-canh/PC_"&amp;B14&amp;".jpg"</f>
+        <v>/img/phong-canh/PC_12.jpg</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" ref="D15" si="7">"/img/phong-canh/PC_"&amp;B15&amp;".jpg"</f>
+        <v>/img/phong-canh/PC_13.jpg</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" ref="D16:D17" si="8">"/img/phong-canh/PC_"&amp;B16&amp;".jpg"</f>
+        <v>/img/phong-canh/PC_14.jpg</v>
+      </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="G16">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>/img/phong-canh/PC_15.jpg</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" ref="D18" si="9">"/img/phong-canh/PC_"&amp;B18&amp;".jpg"</f>
+        <v>/img/phong-canh/PC_16.jpg</v>
+      </c>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G18">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" ref="D19" si="10">"/img/phong-canh/PC_"&amp;B19&amp;".jpg"</f>
+        <v>/img/phong-canh/PC_17.jpg</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>175000</v>
+      </c>
+      <c r="K19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" ref="D20" si="11">"/img/phong-canh/PC_"&amp;B20&amp;".jpg"</f>
+        <v>/img/phong-canh/PC_18.jpg</v>
+      </c>
+      <c r="E20">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>175000</v>
+      </c>
+      <c r="K20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:11">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:11">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:11">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:11">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:11">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:11">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[Tranh-so-hoa-2.xlsx]mater'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F42</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <f>ROW()-2</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>"/img/phong-canh/PC_"&amp;B3&amp;".jpg"</f>
-        <v>/img/phong-canh/PC_1.jpg</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B20" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" ref="D4:D9" si="1">"/img/phong-canh/PC_"&amp;B4&amp;".jpg"</f>
-        <v>/img/phong-canh/PC_2.jpg</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>/img/phong-canh/PC_3.jpg</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>/img/phong-canh/PC_4.jpg</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>/img/phong-canh/PC_5.jpg</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>/img/phong-canh/PC_6.jpg</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>/img/phong-canh/PC_7.jpg</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" ref="D10" si="2">"/img/phong-canh/PC_"&amp;B10&amp;".jpg"</f>
-        <v>/img/phong-canh/PC_8.jpg</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" ref="D11" si="3">"/img/phong-canh/PC_"&amp;B11&amp;".jpg"</f>
-        <v>/img/phong-canh/PC_9.jpg</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" ref="D12" si="4">"/img/phong-canh/PC_"&amp;B12&amp;".jpg"</f>
-        <v>/img/phong-canh/PC_10.jpg</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" ref="D13" si="5">"/img/phong-canh/PC_"&amp;B13&amp;".jpg"</f>
-        <v>/img/phong-canh/PC_11.jpg</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" ref="D14" si="6">"/img/phong-canh/PC_"&amp;B14&amp;".jpg"</f>
-        <v>/img/phong-canh/PC_12.jpg</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" ref="D15" si="7">"/img/phong-canh/PC_"&amp;B15&amp;".jpg"</f>
-        <v>/img/phong-canh/PC_13.jpg</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" ref="D16:D17" si="8">"/img/phong-canh/PC_"&amp;B16&amp;".jpg"</f>
-        <v>/img/phong-canh/PC_14.jpg</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>/img/phong-canh/PC_15.jpg</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" ref="D18" si="9">"/img/phong-canh/PC_"&amp;B18&amp;".jpg"</f>
-        <v>/img/phong-canh/PC_16.jpg</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" ref="D19" si="10">"/img/phong-canh/PC_"&amp;B19&amp;".jpg"</f>
-        <v>/img/phong-canh/PC_17.jpg</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19">
-        <v>175000</v>
-      </c>
-      <c r="I19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f t="shared" ref="D20" si="11">"/img/phong-canh/PC_"&amp;B20&amp;".jpg"</f>
-        <v>/img/phong-canh/PC_18.jpg</v>
-      </c>
-      <c r="E20">
-        <v>29</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20">
-        <v>175000</v>
-      </c>
-      <c r="I20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="F32" s="1"/>
@@ -2763,11 +2636,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2776,63 +2647,114 @@
     <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="2" t="str">
+        <f>phat!A1</f>
+        <v>flg</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>phat!B1</f>
+        <v>id</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>phat!C1</f>
+        <v>name</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>phat!D1</f>
+        <v>link</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>phat!E1</f>
+        <v>color_number</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>phat!F1</f>
+        <v>size</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>phat!G1</f>
+        <v>price</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>phat!H1</f>
+        <v>quantity</v>
+      </c>
+      <c r="I1" s="6" t="str">
+        <f>phat!I1</f>
+        <v>outstanding</v>
+      </c>
+      <c r="J1" s="6" t="str">
+        <f>phat!J1</f>
+        <v>order</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <f>phat!K1</f>
+        <v>shoppe_code</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f>phat!L1</f>
+        <v>kami_code</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <f>phat!A2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="2" t="str">
+        <f>phat!B2</f>
+        <v>STT</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>phat!C2</f>
+        <v>Tên</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>phat!D2</f>
+        <v>Đường dẫn</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>phat!E2</f>
+        <v>Số màu</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>phat!F2</f>
+        <v>Kích thước</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>phat!G2</f>
+        <v>Giá</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>phat!H2</f>
+        <v>Số lượng</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>phat!I2</f>
+        <v>Nổi bật</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>phat!J2</f>
+        <v>Thứ tự ưu tiên</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>phat!K2</f>
+        <v>Mã shoppe</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>phat!L2</f>
+        <v>Mã Kami</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2841,23 +2763,26 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>125000</v>
       </c>
-      <c r="I3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2866,221 +2791,294 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>125000</v>
       </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:10">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:10">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:10">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:10">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:10">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
@@ -3104,11 +3102,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3119,63 +3115,113 @@
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="2" t="str">
+        <f>phat!A1</f>
+        <v>flg</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>phat!B1</f>
+        <v>id</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>phat!C1</f>
+        <v>name</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>phat!D1</f>
+        <v>link</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>phat!E1</f>
+        <v>color_number</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>phat!F1</f>
+        <v>size</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>phat!G1</f>
+        <v>price</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>phat!H1</f>
+        <v>quantity</v>
+      </c>
+      <c r="I1" s="6" t="str">
+        <f>phat!I1</f>
+        <v>outstanding</v>
+      </c>
+      <c r="J1" s="6" t="str">
+        <f>phat!J1</f>
+        <v>order</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <f>phat!K1</f>
+        <v>shoppe_code</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f>phat!L1</f>
+        <v>kami_code</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <f>phat!A2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="2" t="str">
+        <f>phat!B2</f>
+        <v>STT</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>phat!C2</f>
+        <v>Tên</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>phat!D2</f>
+        <v>Đường dẫn</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>phat!E2</f>
+        <v>Số màu</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>phat!F2</f>
+        <v>Kích thước</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>phat!G2</f>
+        <v>Giá</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>phat!H2</f>
+        <v>Số lượng</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>phat!I2</f>
+        <v>Nổi bật</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>phat!J2</f>
+        <v>Thứ tự ưu tiên</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>phat!K2</f>
+        <v>Mã shoppe</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>phat!L2</f>
+        <v>Mã Kami</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3184,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B3&amp;".jpg"</f>
@@ -3192,13 +3238,19 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>135000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3207,7 +3259,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ref="D4:D6" si="1">"/img/hoa/H_"&amp;B4&amp;".jpg"</f>
@@ -3215,13 +3267,19 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>135000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3230,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3238,13 +3296,19 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>135000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -3253,7 +3317,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3261,13 +3325,19 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>135000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3276,7 +3346,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" ref="D7:D8" si="2">"/img/hoa/H_"&amp;B7&amp;".jpg"</f>
@@ -3284,13 +3354,19 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>135000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3299,7 +3375,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3310,8 +3386,14 @@
       <c r="G8">
         <v>135000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3320,7 +3402,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ref="D9" si="3">"/img/hoa/H_"&amp;B9&amp;".jpg"</f>
@@ -3328,13 +3410,19 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>135000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3343,7 +3431,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B10&amp;".jpg"</f>
@@ -3354,8 +3442,14 @@
       <c r="G10">
         <v>185000</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -3364,7 +3458,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B11&amp;".jpg"</f>
@@ -3372,13 +3466,15 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>175000</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3387,7 +3483,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B12&amp;".jpg"</f>
@@ -3397,16 +3493,18 @@
         <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>180000</v>
       </c>
-      <c r="I12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -3415,7 +3513,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B13&amp;".jpg"</f>
@@ -3425,16 +3523,18 @@
         <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>180000</v>
       </c>
-      <c r="I13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -3443,7 +3543,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ref="D14" si="4">"/img/hoa/H_"&amp;B14&amp;".jpg"</f>
@@ -3454,8 +3554,10 @@
       <c r="G14">
         <v>195000</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -3464,7 +3566,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B15&amp;".jpg"</f>
@@ -3474,164 +3576,216 @@
         <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>175000</v>
       </c>
-      <c r="I15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:10">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:10">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:10">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:10">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:10">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
@@ -3655,11 +3809,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3669,62 +3821,113 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="2" t="str">
+        <f>phat!A1</f>
+        <v>flg</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>phat!B1</f>
+        <v>id</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>phat!C1</f>
+        <v>name</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>phat!D1</f>
+        <v>link</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>phat!E1</f>
+        <v>color_number</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>phat!F1</f>
+        <v>size</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>phat!G1</f>
+        <v>price</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>phat!H1</f>
+        <v>quantity</v>
+      </c>
+      <c r="I1" s="6" t="str">
+        <f>phat!I1</f>
+        <v>outstanding</v>
+      </c>
+      <c r="J1" s="6" t="str">
+        <f>phat!J1</f>
+        <v>order</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <f>phat!K1</f>
+        <v>shoppe_code</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f>phat!L1</f>
+        <v>kami_code</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <f>phat!A2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="2" t="str">
+        <f>phat!B2</f>
+        <v>STT</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>phat!C2</f>
+        <v>Tên</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>phat!D2</f>
+        <v>Đường dẫn</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>phat!E2</f>
+        <v>Số màu</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>phat!F2</f>
+        <v>Kích thước</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>phat!G2</f>
+        <v>Giá</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>phat!H2</f>
+        <v>Số lượng</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>phat!I2</f>
+        <v>Nổi bật</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>phat!J2</f>
+        <v>Thứ tự ưu tiên</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>phat!K2</f>
+        <v>Mã shoppe</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>phat!L2</f>
+        <v>Mã Kami</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3733,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/hoa-sen/HS_"&amp;B3&amp;".jpg"</f>
@@ -3744,8 +3947,14 @@
       <c r="G3">
         <v>185000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3754,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>"/img/hoa-sen/HS_"&amp;B4&amp;".jpg"</f>
@@ -3764,16 +3973,22 @@
         <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>175000</v>
       </c>
-      <c r="I4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3782,7 +3997,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>"/img/hoa-sen/HS_"&amp;B5&amp;".jpg"</f>
@@ -3792,16 +4007,22 @@
         <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>175000</v>
       </c>
-      <c r="I5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3809,7 +4030,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3817,7 +4038,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3825,7 +4046,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3833,37 +4054,37 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="F16" s="1"/>
@@ -4035,11 +4256,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4049,62 +4268,112 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="2" t="str">
+        <f>phat!A1</f>
+        <v>flg</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>phat!B1</f>
+        <v>id</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>phat!C1</f>
+        <v>name</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>phat!D1</f>
+        <v>link</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>phat!E1</f>
+        <v>color_number</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>phat!F1</f>
+        <v>size</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>phat!G1</f>
+        <v>price</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>phat!H1</f>
+        <v>quantity</v>
+      </c>
+      <c r="I1" s="6" t="str">
+        <f>phat!I1</f>
+        <v>outstanding</v>
+      </c>
+      <c r="J1" s="6" t="str">
+        <f>phat!J1</f>
+        <v>order</v>
+      </c>
+      <c r="K1" s="7" t="str">
+        <f>phat!K1</f>
+        <v>shoppe_code</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f>phat!L1</f>
+        <v>kami_code</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <f>phat!A2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="2" t="str">
+        <f>phat!B2</f>
+        <v>STT</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>phat!C2</f>
+        <v>Tên</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>phat!D2</f>
+        <v>Đường dẫn</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>phat!E2</f>
+        <v>Số màu</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>phat!F2</f>
+        <v>Kích thước</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>phat!G2</f>
+        <v>Giá</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>phat!H2</f>
+        <v>Số lượng</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>phat!I2</f>
+        <v>Nổi bật</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>phat!J2</f>
+        <v>Thứ tự ưu tiên</v>
+      </c>
+      <c r="K2" s="7" t="str">
+        <f>phat!K2</f>
+        <v>Mã shoppe</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>phat!L2</f>
+        <v>Mã Kami</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4113,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/tinh-yeu/TY_"&amp;B3&amp;".jpg"</f>
@@ -4121,16 +4390,19 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>120000</v>
       </c>
-      <c r="I3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4139,7 +4411,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>"/img/tinh-yeu/TY_"&amp;B4&amp;".jpg"</f>
@@ -4150,66 +4422,69 @@
       <c r="G4">
         <v>145000</v>
       </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="F16" s="1"/>
@@ -4371,11 +4646,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4385,62 +4658,113 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="2" t="str">
+        <f>phat!A1</f>
+        <v>flg</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>phat!B1</f>
+        <v>id</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>phat!C1</f>
+        <v>name</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>phat!D1</f>
+        <v>link</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>phat!E1</f>
+        <v>color_number</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>phat!F1</f>
+        <v>size</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>phat!G1</f>
+        <v>price</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>phat!H1</f>
+        <v>quantity</v>
+      </c>
+      <c r="I1" s="6" t="str">
+        <f>phat!I1</f>
+        <v>outstanding</v>
+      </c>
+      <c r="J1" s="6" t="str">
+        <f>phat!J1</f>
+        <v>order</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <f>phat!K1</f>
+        <v>shoppe_code</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f>phat!L1</f>
+        <v>kami_code</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <f>phat!A2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="2" t="str">
+        <f>phat!B2</f>
+        <v>STT</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>phat!C2</f>
+        <v>Tên</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>phat!D2</f>
+        <v>Đường dẫn</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>phat!E2</f>
+        <v>Số màu</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>phat!F2</f>
+        <v>Kích thước</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>phat!G2</f>
+        <v>Giá</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>phat!H2</f>
+        <v>Số lượng</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>phat!I2</f>
+        <v>Nổi bật</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>phat!J2</f>
+        <v>Thứ tự ưu tiên</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>phat!K2</f>
+        <v>Mã shoppe</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>phat!L2</f>
+        <v>Mã Kami</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4449,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D8" si="1">"/img/nang-tho/NT_"&amp;B3&amp;".jpg"</f>
@@ -4457,13 +4781,19 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>135000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4472,7 +4802,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4483,8 +4813,14 @@
       <c r="G4">
         <v>135000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4493,7 +4829,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4501,13 +4837,19 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>135000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4516,7 +4858,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4524,13 +4866,19 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>135000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4539,7 +4887,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4547,13 +4895,19 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>135000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4562,7 +4916,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4570,13 +4924,19 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>135000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4585,7 +4945,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ref="D9" si="2">"/img/nang-tho/NT_"&amp;B9&amp;".jpg"</f>
@@ -4595,46 +4955,52 @@
         <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>175000</v>
       </c>
-      <c r="I9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="5">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="F16" s="1"/>
@@ -4796,11 +5162,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4810,63 +5174,112 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="2" t="str">
+        <f>phat!A1</f>
+        <v>flg</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>phat!B1</f>
+        <v>id</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>phat!C1</f>
+        <v>name</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>phat!D1</f>
+        <v>link</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>phat!E1</f>
+        <v>color_number</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>phat!F1</f>
+        <v>size</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>phat!G1</f>
+        <v>price</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>phat!H1</f>
+        <v>quantity</v>
+      </c>
+      <c r="I1" s="6" t="str">
+        <f>phat!I1</f>
+        <v>outstanding</v>
+      </c>
+      <c r="J1" s="6" t="str">
+        <f>phat!J1</f>
+        <v>order</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <f>phat!K1</f>
+        <v>shoppe_code</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f>phat!L1</f>
+        <v>kami_code</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <f>phat!A2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="2" t="str">
+        <f>phat!B2</f>
+        <v>STT</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>phat!C2</f>
+        <v>Tên</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>phat!D2</f>
+        <v>Đường dẫn</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>phat!E2</f>
+        <v>Số màu</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>phat!F2</f>
+        <v>Kích thước</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>phat!G2</f>
+        <v>Giá</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>phat!H2</f>
+        <v>Số lượng</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>phat!I2</f>
+        <v>Nổi bật</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>phat!J2</f>
+        <v>Thứ tự ưu tiên</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>phat!K2</f>
+        <v>Mã shoppe</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>phat!L2</f>
+        <v>Mã Kami</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4875,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/dong-vat/DV_"&amp;B3&amp;".jpg"</f>
@@ -4883,13 +5296,19 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>135000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4898,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ref="D4:D6" si="1">"/img/dong-vat/DV_"&amp;B4&amp;".jpg"</f>
@@ -4909,8 +5328,14 @@
       <c r="G4">
         <v>180000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4919,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4930,8 +5355,14 @@
       <c r="G5">
         <v>135000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4940,7 +5371,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4951,8 +5382,14 @@
       <c r="G6">
         <v>135000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4961,7 +5398,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" ref="D7" si="2">"/img/dong-vat/DV_"&amp;B7&amp;".jpg"</f>
@@ -4969,13 +5406,19 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>170000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4984,7 +5427,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ref="D8" si="3">"/img/dong-vat/DV_"&amp;B8&amp;".jpg"</f>
@@ -4992,13 +5435,19 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>170000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5007,7 +5456,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ref="D9:D10" si="4">"/img/dong-vat/DV_"&amp;B9&amp;".jpg"</f>
@@ -5015,13 +5464,19 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>135000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -5030,7 +5485,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5038,13 +5493,19 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>170000</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -5053,7 +5514,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" ref="D11" si="5">"/img/dong-vat/DV_"&amp;B11&amp;".jpg"</f>
@@ -5065,7 +5526,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -5074,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ref="D12" si="6">"/img/dong-vat/DV_"&amp;B12&amp;".jpg"</f>
@@ -5086,7 +5547,7 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -5095,7 +5556,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" ref="D13" si="7">"/img/dong-vat/DV_"&amp;B13&amp;".jpg"</f>
@@ -5105,16 +5566,16 @@
         <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>175000</v>
       </c>
-      <c r="I13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -5123,7 +5584,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ref="D14" si="8">"/img/dong-vat/DV_"&amp;B14&amp;".jpg"</f>
@@ -5133,21 +5594,21 @@
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>175000</v>
       </c>
-      <c r="I14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="F16" s="1"/>
@@ -5319,11 +5780,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5333,62 +5792,114 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" hidden="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="2" t="str">
+        <f>phat!A1</f>
+        <v>flg</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <f>phat!B1</f>
+        <v>id</v>
+      </c>
+      <c r="C1" s="2" t="str">
+        <f>phat!C1</f>
+        <v>name</v>
+      </c>
+      <c r="D1" s="2" t="str">
+        <f>phat!D1</f>
+        <v>link</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>phat!E1</f>
+        <v>color_number</v>
+      </c>
+      <c r="F1" s="2" t="str">
+        <f>phat!F1</f>
+        <v>size</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>phat!G1</f>
+        <v>price</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>phat!H1</f>
+        <v>quantity</v>
+      </c>
+      <c r="I1" s="6" t="str">
+        <f>phat!I1</f>
+        <v>outstanding</v>
+      </c>
+      <c r="J1" s="6" t="str">
+        <f>phat!J1</f>
+        <v>order</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <f>phat!K1</f>
+        <v>shoppe_code</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f>phat!L1</f>
+        <v>kami_code</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <f>phat!A2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="2" t="str">
+        <f>phat!B2</f>
+        <v>STT</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>phat!C2</f>
+        <v>Tên</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>phat!D2</f>
+        <v>Đường dẫn</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>phat!E2</f>
+        <v>Số màu</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>phat!F2</f>
+        <v>Kích thước</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>phat!G2</f>
+        <v>Giá</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>phat!H2</f>
+        <v>Số lượng</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>phat!I2</f>
+        <v>Nổi bật</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>phat!J2</f>
+        <v>Thứ tự ưu tiên</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>phat!K2</f>
+        <v>Mã shoppe</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>phat!L2</f>
+        <v>Mã Kami</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5397,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/hoat-hinh/HH_"&amp;B3&amp;".jpg"</f>
@@ -5405,13 +5916,19 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>145000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5420,7 +5937,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ref="D4:D7" si="1">"/img/hoat-hinh/HH_"&amp;B4&amp;".jpg"</f>
@@ -5431,8 +5948,14 @@
       <c r="G4">
         <v>135000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5441,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5449,13 +5972,19 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>145000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5464,7 +5993,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5472,13 +6001,19 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>135000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5487,7 +6022,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5495,13 +6030,19 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>145000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5510,7 +6051,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ref="D8:D9" si="2">"/img/hoat-hinh/HH_"&amp;B8&amp;".jpg"</f>
@@ -5518,13 +6059,19 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>145000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5533,7 +6080,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5541,13 +6088,19 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <v>165000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -5556,7 +6109,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" ref="D10" si="3">"/img/hoat-hinh/HH_"&amp;B10&amp;".jpg"</f>
@@ -5564,13 +6117,19 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10">
         <v>165000</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -5579,7 +6138,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" ref="D11" si="4">"/img/hoat-hinh/HH_"&amp;B11&amp;".jpg"</f>
@@ -5587,33 +6146,33 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>165000</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="F16" s="1"/>

--- a/data-excel/Tranh-so-hoa-1.xlsx
+++ b/data-excel/Tranh-so-hoa-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790"/>
   </bookViews>
   <sheets>
     <sheet name="phat" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="dong-vat" sheetId="6" r:id="rId8"/>
     <sheet name="hoat-hinh" sheetId="11" r:id="rId9"/>
     <sheet name="cung-hoang-dao" sheetId="12" r:id="rId10"/>
-    <sheet name="mater" sheetId="4" r:id="rId11"/>
+    <sheet name="master_shope, kami code" sheetId="14" r:id="rId11"/>
+    <sheet name="mater" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="132">
   <si>
     <t>Tên</t>
   </si>
@@ -421,6 +422,15 @@
   </si>
   <si>
     <t>Thứ tự ưu tiên</t>
+  </si>
+  <si>
+    <t>phat</t>
+  </si>
+  <si>
+    <t>phong-canh</t>
+  </si>
+  <si>
+    <t>me-va-be</t>
   </si>
 </sst>
 </file>
@@ -779,7 +789,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1437,7 +1447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1856,10 +1868,41 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1911,7 +1954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2638,7 +2683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5782,7 +5829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/data-excel/Tranh-so-hoa-1.xlsx
+++ b/data-excel/Tranh-so-hoa-1.xlsx
@@ -22,8 +22,7 @@
     <sheet name="dong-vat" sheetId="6" r:id="rId8"/>
     <sheet name="hoat-hinh" sheetId="11" r:id="rId9"/>
     <sheet name="cung-hoang-dao" sheetId="12" r:id="rId10"/>
-    <sheet name="master_shope, kami code" sheetId="14" r:id="rId11"/>
-    <sheet name="mater" sheetId="4" r:id="rId12"/>
+    <sheet name="mater" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="194">
   <si>
     <t>Tên</t>
   </si>
@@ -424,13 +423,199 @@
     <t>Thứ tự ưu tiên</t>
   </si>
   <si>
-    <t>phat</t>
-  </si>
-  <si>
-    <t>phong-canh</t>
-  </si>
-  <si>
-    <t>me-va-be</t>
+    <t>KM012</t>
+  </si>
+  <si>
+    <t>KM018</t>
+  </si>
+  <si>
+    <t>KM021</t>
+  </si>
+  <si>
+    <t>KM022</t>
+  </si>
+  <si>
+    <t>KM023</t>
+  </si>
+  <si>
+    <t>KM024</t>
+  </si>
+  <si>
+    <t>KM025</t>
+  </si>
+  <si>
+    <t>KM026</t>
+  </si>
+  <si>
+    <t>KM027</t>
+  </si>
+  <si>
+    <t>KM028</t>
+  </si>
+  <si>
+    <t>KM029</t>
+  </si>
+  <si>
+    <t>KM030</t>
+  </si>
+  <si>
+    <t>KM031</t>
+  </si>
+  <si>
+    <t>KM032</t>
+  </si>
+  <si>
+    <t>KM033</t>
+  </si>
+  <si>
+    <t>KM034</t>
+  </si>
+  <si>
+    <t>KM035</t>
+  </si>
+  <si>
+    <t>KM036</t>
+  </si>
+  <si>
+    <t>KM037</t>
+  </si>
+  <si>
+    <t>KM038</t>
+  </si>
+  <si>
+    <t>KM039</t>
+  </si>
+  <si>
+    <t>KM040</t>
+  </si>
+  <si>
+    <t>KM041</t>
+  </si>
+  <si>
+    <t>KM042</t>
+  </si>
+  <si>
+    <t>KM043</t>
+  </si>
+  <si>
+    <t>KM044</t>
+  </si>
+  <si>
+    <t>KM045</t>
+  </si>
+  <si>
+    <t>KM046</t>
+  </si>
+  <si>
+    <t>KM047</t>
+  </si>
+  <si>
+    <t>KM048</t>
+  </si>
+  <si>
+    <t>KM049</t>
+  </si>
+  <si>
+    <t>KM050</t>
+  </si>
+  <si>
+    <t>KM051</t>
+  </si>
+  <si>
+    <t>KM052</t>
+  </si>
+  <si>
+    <t>KM053</t>
+  </si>
+  <si>
+    <t>KM054</t>
+  </si>
+  <si>
+    <t>KM055</t>
+  </si>
+  <si>
+    <t>KM056</t>
+  </si>
+  <si>
+    <t>KM057</t>
+  </si>
+  <si>
+    <t>KM058</t>
+  </si>
+  <si>
+    <t>KM059</t>
+  </si>
+  <si>
+    <t>KM060</t>
+  </si>
+  <si>
+    <t>KM061</t>
+  </si>
+  <si>
+    <t>KM062</t>
+  </si>
+  <si>
+    <t>KM063</t>
+  </si>
+  <si>
+    <t>KM064</t>
+  </si>
+  <si>
+    <t>KM065</t>
+  </si>
+  <si>
+    <t>KM066</t>
+  </si>
+  <si>
+    <t>KM067</t>
+  </si>
+  <si>
+    <t>KM068</t>
+  </si>
+  <si>
+    <t>KM069</t>
+  </si>
+  <si>
+    <t>KM070</t>
+  </si>
+  <si>
+    <t>KM071</t>
+  </si>
+  <si>
+    <t>KM072</t>
+  </si>
+  <si>
+    <t>KM073</t>
+  </si>
+  <si>
+    <t>KM074</t>
+  </si>
+  <si>
+    <t>KM075</t>
+  </si>
+  <si>
+    <t>KM076</t>
+  </si>
+  <si>
+    <t>KM077</t>
+  </si>
+  <si>
+    <t>KM078</t>
+  </si>
+  <si>
+    <t>KM079</t>
+  </si>
+  <si>
+    <t>KM080</t>
+  </si>
+  <si>
+    <t>KM081</t>
+  </si>
+  <si>
+    <t>KM082</t>
+  </si>
+  <si>
+    <t>KM083</t>
   </si>
 </sst>
 </file>
@@ -788,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -807,7 +992,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" hidden="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -909,6 +1094,9 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -1006,6 +1194,9 @@
       <c r="J6" s="5">
         <v>4</v>
       </c>
+      <c r="L6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -1103,6 +1294,9 @@
       <c r="J9" s="5">
         <v>7</v>
       </c>
+      <c r="L9" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -1131,6 +1325,9 @@
       </c>
       <c r="J10" s="5">
         <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1154,6 +1351,9 @@
         <v>205000</v>
       </c>
       <c r="I11" s="5"/>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -1265,6 +1465,9 @@
         <v>175000</v>
       </c>
       <c r="I15" s="5"/>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
@@ -1447,9 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1590,6 +1791,9 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -1617,6 +1821,9 @@
       <c r="J4" s="5">
         <v>2</v>
       </c>
+      <c r="L4" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -1643,6 +1850,9 @@
       </c>
       <c r="J5" s="5">
         <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1868,42 +2078,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1954,9 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2100,6 +2275,9 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -2129,6 +2307,9 @@
       <c r="J4" s="5">
         <v>2</v>
       </c>
+      <c r="L4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -2158,6 +2339,9 @@
       <c r="J5" s="5">
         <v>3</v>
       </c>
+      <c r="L5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -2186,6 +2370,9 @@
       <c r="J6" s="5">
         <v>4</v>
       </c>
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -2214,6 +2401,9 @@
       <c r="J7" s="5">
         <v>5</v>
       </c>
+      <c r="L7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
@@ -2242,6 +2432,9 @@
       <c r="J8" s="5">
         <v>6</v>
       </c>
+      <c r="L8" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -2270,6 +2463,9 @@
       <c r="J9" s="5">
         <v>7</v>
       </c>
+      <c r="L9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -2298,6 +2494,9 @@
       <c r="J10" s="5">
         <v>8</v>
       </c>
+      <c r="L10" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
@@ -2320,6 +2519,9 @@
       <c r="G11">
         <v>130000</v>
       </c>
+      <c r="L11" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -2342,6 +2544,9 @@
       <c r="G12">
         <v>130000</v>
       </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
@@ -2364,6 +2569,9 @@
       <c r="G13">
         <v>135000</v>
       </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -2386,6 +2594,9 @@
       <c r="G14">
         <v>130000</v>
       </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
@@ -2408,6 +2619,9 @@
       <c r="G15">
         <v>175000</v>
       </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
@@ -2428,8 +2642,11 @@
       <c r="G16">
         <v>180000</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2450,8 +2667,11 @@
       <c r="G17">
         <v>180000</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2470,8 +2690,11 @@
       <c r="G18">
         <v>135000</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2499,7 +2722,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2527,62 +2750,62 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="F32" s="1"/>
@@ -2683,9 +2906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2828,6 +3049,9 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -2855,6 +3079,9 @@
       </c>
       <c r="J4" s="5">
         <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3296,6 +3523,9 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -3325,6 +3555,9 @@
       <c r="J4" s="5">
         <v>2</v>
       </c>
+      <c r="L4" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -3354,6 +3587,9 @@
       <c r="J5" s="5">
         <v>3</v>
       </c>
+      <c r="L5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -3383,6 +3619,9 @@
       <c r="J6" s="5">
         <v>4</v>
       </c>
+      <c r="L6" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -3411,6 +3650,9 @@
       </c>
       <c r="J7" s="5">
         <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3439,6 +3681,9 @@
       <c r="J8" s="5">
         <v>6</v>
       </c>
+      <c r="L8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -3467,6 +3712,9 @@
       </c>
       <c r="J9" s="5">
         <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3495,6 +3743,9 @@
       <c r="J10" s="5">
         <v>8</v>
       </c>
+      <c r="L10" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="1">
@@ -3520,6 +3771,9 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
+      <c r="L11" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -3603,6 +3857,9 @@
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
+      <c r="L14" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
@@ -4000,6 +4257,9 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -4448,6 +4708,9 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -4474,6 +4737,9 @@
       </c>
       <c r="J4" s="5">
         <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4839,6 +5105,9 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -4866,6 +5135,9 @@
       <c r="J4" s="5">
         <v>2</v>
       </c>
+      <c r="L4" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -4895,6 +5167,9 @@
       <c r="J5" s="5">
         <v>3</v>
       </c>
+      <c r="L5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -4924,6 +5199,9 @@
       <c r="J6" s="5">
         <v>4</v>
       </c>
+      <c r="L6" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -4953,6 +5231,9 @@
       <c r="J7" s="5">
         <v>5</v>
       </c>
+      <c r="L7" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
@@ -4981,6 +5262,9 @@
       </c>
       <c r="J8" s="5">
         <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5354,6 +5638,9 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -5381,6 +5668,9 @@
       <c r="J4" s="5">
         <v>2</v>
       </c>
+      <c r="L4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -5408,6 +5698,9 @@
       <c r="J5" s="5">
         <v>3</v>
       </c>
+      <c r="L5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -5435,6 +5728,9 @@
       <c r="J6" s="5">
         <v>4</v>
       </c>
+      <c r="L6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -5464,6 +5760,9 @@
       <c r="J7" s="5">
         <v>5</v>
       </c>
+      <c r="L7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
@@ -5493,6 +5792,9 @@
       <c r="J8" s="5">
         <v>6</v>
       </c>
+      <c r="L8" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -5522,6 +5824,9 @@
       <c r="J9" s="5">
         <v>7</v>
       </c>
+      <c r="L9" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -5550,6 +5855,9 @@
       </c>
       <c r="J10" s="5">
         <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5572,6 +5880,9 @@
       <c r="G11">
         <v>320000</v>
       </c>
+      <c r="L11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
@@ -5592,6 +5903,9 @@
       <c r="F12" s="1"/>
       <c r="G12">
         <v>205000</v>
+      </c>
+      <c r="L12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5829,9 +6143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5976,6 +6288,9 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
+      <c r="L3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -6003,6 +6318,9 @@
       <c r="J4" s="5">
         <v>2</v>
       </c>
+      <c r="L4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -6032,6 +6350,9 @@
       <c r="J5" s="5">
         <v>3</v>
       </c>
+      <c r="L5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -6061,6 +6382,9 @@
       <c r="J6" s="5">
         <v>4</v>
       </c>
+      <c r="L6" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -6090,6 +6414,9 @@
       <c r="J7" s="5">
         <v>5</v>
       </c>
+      <c r="L7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
@@ -6119,6 +6446,9 @@
       <c r="J8" s="5">
         <v>6</v>
       </c>
+      <c r="L8" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -6148,6 +6478,9 @@
       <c r="J9" s="5">
         <v>7</v>
       </c>
+      <c r="L9" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -6177,6 +6510,9 @@
       <c r="J10" s="5">
         <v>8</v>
       </c>
+      <c r="L10" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
@@ -6199,6 +6535,9 @@
       </c>
       <c r="G11">
         <v>165000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:12">

--- a/data-excel/Tranh-so-hoa-1.xlsx
+++ b/data-excel/Tranh-so-hoa-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="phat" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="194">
   <si>
     <t>Tên</t>
   </si>
@@ -129,33 +129,15 @@
     <t>/img/me-va-be/MB_2.jpg</t>
   </si>
   <si>
-    <t>Hoa 01</t>
-  </si>
-  <si>
     <t>40x40</t>
   </si>
   <si>
-    <t>Phong cảnh 01</t>
-  </si>
-  <si>
-    <t>Phong cảnh 02</t>
-  </si>
-  <si>
     <t>Xứ sở thần tiên</t>
   </si>
   <si>
-    <t>Phượng hoàng 01</t>
-  </si>
-  <si>
-    <t>Phượng hoàng 02</t>
-  </si>
-  <si>
     <t>Sasuke</t>
   </si>
   <si>
-    <t>Phong cảnh 03</t>
-  </si>
-  <si>
     <t>Bức tường hoa hồng</t>
   </si>
   <si>
@@ -168,45 +150,18 @@
     <t>Nàng thơ 03</t>
   </si>
   <si>
-    <t>Phong cảnh 04</t>
-  </si>
-  <si>
     <t>Mẹ thiên nhiên</t>
   </si>
   <si>
-    <t>Phong cảnh Sông núi 01</t>
-  </si>
-  <si>
-    <t>Phong cảnh Sông núi 02</t>
-  </si>
-  <si>
     <t>Nàng dâu xứ Trung</t>
   </si>
   <si>
     <t>Nàng thơ 04</t>
   </si>
   <si>
-    <t>Phật 01</t>
-  </si>
-  <si>
     <t>Nàng thơ 05</t>
   </si>
   <si>
-    <t>Hoa hướng dương 01</t>
-  </si>
-  <si>
-    <t>Hoa hướng dương 02</t>
-  </si>
-  <si>
-    <t>Vua hải tặc 01</t>
-  </si>
-  <si>
-    <t>Vua hải tặc 02</t>
-  </si>
-  <si>
-    <t>Vua hải tặc 03</t>
-  </si>
-  <si>
     <t>Phong cảnh mùa thu</t>
   </si>
   <si>
@@ -222,81 +177,27 @@
     <t>Bạch mã</t>
   </si>
   <si>
-    <t>Phong cảnh Nhật Bản 01</t>
-  </si>
-  <si>
-    <t>Phong cảnh Nhật Bản 02</t>
-  </si>
-  <si>
-    <t>Phật 02</t>
-  </si>
-  <si>
     <t>Tranh khung tròn 12 cung hoàng đạo</t>
   </si>
   <si>
     <t>Kakashi</t>
   </si>
   <si>
-    <t>Phật 03</t>
-  </si>
-  <si>
-    <t>Cánh đồng hoa và chú cún 01</t>
-  </si>
-  <si>
-    <t>Cánh đồng hoa và chú cún 02</t>
-  </si>
-  <si>
-    <t>Cánh đồng hoa và chú cún 03</t>
-  </si>
-  <si>
-    <t>Phật (Lọ màu 5ml) 01</t>
-  </si>
-  <si>
-    <t>Phật (Lọ màu 5ml) 02</t>
-  </si>
-  <si>
-    <t>Vua hải tặc 04</t>
-  </si>
-  <si>
-    <t>Vua hải tặc 05</t>
-  </si>
-  <si>
     <t>Mã đáo thành công</t>
   </si>
   <si>
-    <t>Hoa sen trắng 01</t>
-  </si>
-  <si>
-    <t>Phật (Lọ màu 5ml) 03</t>
-  </si>
-  <si>
     <t>Hoa cẩm chướng</t>
   </si>
   <si>
     <t>Thuyền và biển</t>
   </si>
   <si>
-    <t>Hoa sen 02</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Phật 04</t>
-  </si>
-  <si>
-    <t>Tranh tròn hoa sen 01</t>
-  </si>
-  <si>
     <t>Đôi công</t>
   </si>
   <si>
-    <t>Hoa Tuy Líp 01</t>
-  </si>
-  <si>
-    <t>Hoa Tuy Líp 02</t>
-  </si>
-  <si>
     <t>Ruộng bậc thang</t>
   </si>
   <si>
@@ -312,24 +213,12 @@
     <t>Tranh khung tròn 12 con giáp 01</t>
   </si>
   <si>
-    <t>Phật trên đài sen 01</t>
-  </si>
-  <si>
-    <t>Phật trên đài sen 02</t>
-  </si>
-  <si>
     <t>KM014</t>
   </si>
   <si>
     <t>KM010</t>
   </si>
   <si>
-    <t>Cánh đồng hoa Tuy Líp 03</t>
-  </si>
-  <si>
-    <t>Vua hải tặc 06</t>
-  </si>
-  <si>
     <t>Thiên nhiên hùng vỹ</t>
   </si>
   <si>
@@ -339,9 +228,6 @@
     <t>KM003</t>
   </si>
   <si>
-    <t>Cánh đồng hoa Tuy Líp 04</t>
-  </si>
-  <si>
     <t>KM009</t>
   </si>
   <si>
@@ -366,12 +252,6 @@
     <t>KM005</t>
   </si>
   <si>
-    <t>Hoa hướng dương 03</t>
-  </si>
-  <si>
-    <t>Cánh đồng hoa Tuy Líp 05</t>
-  </si>
-  <si>
     <t>KM008</t>
   </si>
   <si>
@@ -616,13 +496,133 @@
   </si>
   <si>
     <t>KM083</t>
+  </si>
+  <si>
+    <t>Đức Phật</t>
+  </si>
+  <si>
+    <t>KM085</t>
+  </si>
+  <si>
+    <t>Phật trên đài sen</t>
+  </si>
+  <si>
+    <t>Phật (Lọ màu 5ml)</t>
+  </si>
+  <si>
+    <t>KM086</t>
+  </si>
+  <si>
+    <t>KM087</t>
+  </si>
+  <si>
+    <t>Phượng hoàng</t>
+  </si>
+  <si>
+    <t>Cánh đồng hoa và chú cún</t>
+  </si>
+  <si>
+    <t>Rồng</t>
+  </si>
+  <si>
+    <t>Phong cảnh</t>
+  </si>
+  <si>
+    <t>Phong cảnh Nhật Bản</t>
+  </si>
+  <si>
+    <t>Phong cảnh Sông núi</t>
+  </si>
+  <si>
+    <t>KM088</t>
+  </si>
+  <si>
+    <t>KM089</t>
+  </si>
+  <si>
+    <t>KM090</t>
+  </si>
+  <si>
+    <t>Phong cảnh sân vườn</t>
+  </si>
+  <si>
+    <t>KM091</t>
+  </si>
+  <si>
+    <t>Cảnh nhà cổ điển</t>
+  </si>
+  <si>
+    <t>KM092</t>
+  </si>
+  <si>
+    <t>Tranh cuộc sống đầy màu sắc</t>
+  </si>
+  <si>
+    <t>KM093</t>
+  </si>
+  <si>
+    <t>KM094</t>
+  </si>
+  <si>
+    <t>KM095</t>
+  </si>
+  <si>
+    <t>KM096</t>
+  </si>
+  <si>
+    <t>Tranh tròn hoa sen</t>
+  </si>
+  <si>
+    <t>Hoa sen trắng</t>
+  </si>
+  <si>
+    <t>Hoa sen</t>
+  </si>
+  <si>
+    <t>Hoa sen vàng</t>
+  </si>
+  <si>
+    <t>KM101</t>
+  </si>
+  <si>
+    <t>KM102</t>
+  </si>
+  <si>
+    <t>KM103</t>
+  </si>
+  <si>
+    <t>KM104</t>
+  </si>
+  <si>
+    <t>Hoa</t>
+  </si>
+  <si>
+    <t>Hoa hướng dương</t>
+  </si>
+  <si>
+    <t>Hoa Tuy Líp</t>
+  </si>
+  <si>
+    <t>Cánh đồng hoa Tuy Líp</t>
+  </si>
+  <si>
+    <t>KM105</t>
+  </si>
+  <si>
+    <t>KM106</t>
+  </si>
+  <si>
+    <t>Tranh Phật</t>
+  </si>
+  <si>
+    <t>Vua hải tặc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +652,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -673,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -691,6 +703,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1006,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -1018,16 +1032,16 @@
         <v>13</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1054,16 +1068,16 @@
         <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1089,13 +1103,13 @@
         <v>175000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1103,11 +1117,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B15" si="1">ROW()-2</f>
+        <f t="shared" ref="B4:B18" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1123,13 +1137,13 @@
         <v>175000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1141,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1157,13 +1171,13 @@
         <v>175000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1175,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1189,13 +1203,13 @@
         <v>200000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1207,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1223,13 +1237,13 @@
         <v>175000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1241,7 +1255,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1257,13 +1271,13 @@
         <v>175000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1275,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1289,13 +1303,13 @@
         <v>200000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1307,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1321,13 +1335,13 @@
         <v>200000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J10" s="5">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1339,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1352,7 +1366,7 @@
       </c>
       <c r="I11" s="5"/>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1364,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ref="D12:D13" si="2">"/img/phat/P_"&amp;B12&amp;".jpg"</f>
@@ -1381,7 +1395,7 @@
       </c>
       <c r="I12" s="5"/>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1393,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1410,7 +1424,7 @@
       </c>
       <c r="I13" s="5"/>
       <c r="K13" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1422,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ref="D14" si="3">"/img/phat/P_"&amp;B14&amp;".jpg"</f>
@@ -1439,7 +1453,7 @@
       </c>
       <c r="I14" s="5"/>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1451,10 +1465,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" ref="D15" si="4">"/img/phat/P_"&amp;B15&amp;".jpg"</f>
+        <f t="shared" ref="D15:D18" si="4">"/img/phat/P_"&amp;B15&amp;".jpg"</f>
         <v>/img/phat/P_13.jpg</v>
       </c>
       <c r="E15" s="1"/>
@@ -1466,90 +1480,150 @@
       </c>
       <c r="I15" s="5"/>
       <c r="L15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="10" customFormat="1">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>/img/phat/P_14.jpg</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="10">
+        <v>200000</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>/img/phat/P_15.jpg</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="10">
+        <v>200000</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
+      <c r="B18" s="9">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>/img/phat/P_16.jpg</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="10">
+        <v>200000</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="F32" s="1"/>
@@ -1774,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/cung-hoang-dao/CHD_"&amp;B3&amp;".jpg"</f>
@@ -1786,13 +1860,13 @@
         <v>200000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1804,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>"/img/cung-hoang-dao/CHD_"&amp;B4&amp;".jpg"</f>
@@ -1816,13 +1890,13 @@
         <v>200000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1834,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>"/img/cung-hoang-dao/CHD_"&amp;B5&amp;".jpg"</f>
@@ -1846,13 +1920,13 @@
         <v>200000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2109,7 +2183,7 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:2">
@@ -2270,13 +2344,13 @@
         <v>130000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2284,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B20" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B30" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2302,13 +2376,13 @@
         <v>175000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2334,13 +2408,13 @@
         <v>135000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2365,13 +2439,13 @@
         <v>135000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2383,7 +2457,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2396,13 +2470,13 @@
         <v>135000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2414,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2427,13 +2501,13 @@
         <v>175000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2445,7 +2519,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2458,13 +2532,13 @@
         <v>135000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2476,7 +2550,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" ref="D10" si="2">"/img/phong-canh/PC_"&amp;B10&amp;".jpg"</f>
@@ -2489,13 +2563,13 @@
         <v>180000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J10" s="5">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2507,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" ref="D11" si="3">"/img/phong-canh/PC_"&amp;B11&amp;".jpg"</f>
@@ -2520,7 +2594,7 @@
         <v>130000</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2532,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ref="D12" si="4">"/img/phong-canh/PC_"&amp;B12&amp;".jpg"</f>
@@ -2545,7 +2619,7 @@
         <v>130000</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2557,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" ref="D13" si="5">"/img/phong-canh/PC_"&amp;B13&amp;".jpg"</f>
@@ -2570,7 +2644,7 @@
         <v>135000</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2582,7 +2656,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ref="D14" si="6">"/img/phong-canh/PC_"&amp;B14&amp;".jpg"</f>
@@ -2595,7 +2669,7 @@
         <v>130000</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2607,7 +2681,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" ref="D15" si="7">"/img/phong-canh/PC_"&amp;B15&amp;".jpg"</f>
@@ -2620,7 +2694,7 @@
         <v>175000</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2632,7 +2706,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" ref="D16:D17" si="8">"/img/phong-canh/PC_"&amp;B16&amp;".jpg"</f>
@@ -2643,7 +2717,7 @@
         <v>180000</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2655,7 +2729,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2668,7 +2742,7 @@
         <v>180000</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2680,7 +2754,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" ref="D18" si="9">"/img/phong-canh/PC_"&amp;B18&amp;".jpg"</f>
@@ -2691,7 +2765,7 @@
         <v>135000</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2703,7 +2777,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" ref="D19" si="10">"/img/phong-canh/PC_"&amp;B19&amp;".jpg"</f>
@@ -2719,7 +2793,7 @@
         <v>175000</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2731,10 +2805,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" ref="D20" si="11">"/img/phong-canh/PC_"&amp;B20&amp;".jpg"</f>
+        <f t="shared" ref="D20:D30" si="11">"/img/phong-canh/PC_"&amp;B20&amp;".jpg"</f>
         <v>/img/phong-canh/PC_18.jpg</v>
       </c>
       <c r="E20">
@@ -2747,58 +2821,258 @@
         <v>175000</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>/img/phong-canh/PC_19.jpg</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>175000</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>/img/phong-canh/PC_20.jpg</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>175000</v>
+      </c>
+      <c r="L22" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>/img/phong-canh/PC_21.jpg</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>135000</v>
+      </c>
+      <c r="L23" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>/img/phong-canh/PC_22.jpg</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>175000</v>
+      </c>
+      <c r="L24" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>/img/phong-canh/PC_23.jpg</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>175000</v>
+      </c>
+      <c r="L25" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>/img/phong-canh/PC_24.jpg</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>175000</v>
+      </c>
+      <c r="L26" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>/img/phong-canh/PC_25.jpg</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>175000</v>
+      </c>
+      <c r="L27" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>/img/phong-canh/PC_26.jpg</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>175000</v>
+      </c>
+      <c r="L28" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>/img/phong-canh/PC_27.jpg</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>175000</v>
+      </c>
+      <c r="L29" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>/img/phong-canh/PC_28.jpg</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>175000</v>
+      </c>
+      <c r="L30" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
@@ -3044,13 +3318,13 @@
         <v>125000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3075,13 +3349,13 @@
         <v>125000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3518,13 +3792,13 @@
         <v>135000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3532,11 +3806,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B15" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B17" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ref="D4:D6" si="1">"/img/hoa/H_"&amp;B4&amp;".jpg"</f>
@@ -3544,19 +3818,19 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <v>135000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3568,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3582,13 +3856,13 @@
         <v>135000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3600,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3614,13 +3888,13 @@
         <v>135000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3632,7 +3906,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" ref="D7:D8" si="2">"/img/hoa/H_"&amp;B7&amp;".jpg"</f>
@@ -3640,19 +3914,19 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>135000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3664,7 +3938,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3676,13 +3950,13 @@
         <v>135000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3694,7 +3968,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ref="D9" si="3">"/img/hoa/H_"&amp;B9&amp;".jpg"</f>
@@ -3708,13 +3982,13 @@
         <v>135000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3726,7 +4000,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B10&amp;".jpg"</f>
@@ -3738,13 +4012,13 @@
         <v>185000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J10" s="5">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
@@ -3756,7 +4030,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B11&amp;".jpg"</f>
@@ -3772,7 +4046,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="L11" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3784,7 +4058,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B12&amp;".jpg"</f>
@@ -3802,7 +4076,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3814,7 +4088,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B13&amp;".jpg"</f>
@@ -3832,7 +4106,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3844,7 +4118,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ref="D14" si="4">"/img/hoa/H_"&amp;B14&amp;".jpg"</f>
@@ -3858,7 +4132,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3870,7 +4144,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B15&amp;".jpg"</f>
@@ -3888,122 +4162,162 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>"/img/hoa/H_"&amp;B16&amp;".jpg"</f>
+        <v>/img/hoa/H_14.jpg</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>175000</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="L16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>"/img/hoa/H_"&amp;B17&amp;".jpg"</f>
+        <v>/img/hoa/H_15.jpg</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>175000</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="F18" s="1"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="F19" s="1"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="F20" s="1"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="F21" s="1"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="F23" s="1"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="F24" s="1"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="F25" s="1"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="F26" s="1"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="F27" s="1"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="F28" s="1"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="F29" s="1"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="F30" s="1"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="F31" s="1"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="F32" s="1"/>
@@ -4240,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/hoa-sen/HS_"&amp;B3&amp;".jpg"</f>
@@ -4252,13 +4566,13 @@
         <v>185000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4270,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>"/img/hoa-sen/HS_"&amp;B4&amp;".jpg"</f>
@@ -4286,13 +4600,13 @@
         <v>175000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4304,7 +4618,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>"/img/hoa-sen/HS_"&amp;B5&amp;".jpg"</f>
@@ -4320,30 +4634,66 @@
         <v>175000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B7" si="0">ROW()-2</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ref="D6:D7" si="1">"/img/hoa-sen/HS_"&amp;B6&amp;".jpg"</f>
+        <v>/img/hoa-sen/HS_4.jpg</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>165000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/img/hoa-sen/HS_5.jpg</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>165000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1"/>
@@ -4703,13 +5053,13 @@
         <v>120000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4733,13 +5083,13 @@
         <v>145000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5100,13 +5450,13 @@
         <v>135000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5118,7 +5468,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5130,13 +5480,13 @@
         <v>135000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5148,7 +5498,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5162,13 +5512,13 @@
         <v>135000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5180,7 +5530,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5194,13 +5544,13 @@
         <v>135000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5212,7 +5562,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5226,13 +5576,13 @@
         <v>135000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5244,7 +5594,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5258,13 +5608,13 @@
         <v>135000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5276,7 +5626,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ref="D9" si="2">"/img/nang-tho/NT_"&amp;B9&amp;".jpg"</f>
@@ -5292,13 +5642,13 @@
         <v>175000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5619,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/dong-vat/DV_"&amp;B3&amp;".jpg"</f>
@@ -5633,13 +5983,13 @@
         <v>135000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5647,11 +5997,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B14" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B15" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ref="D4:D6" si="1">"/img/dong-vat/DV_"&amp;B4&amp;".jpg"</f>
@@ -5663,13 +6013,13 @@
         <v>180000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5681,7 +6031,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5693,13 +6043,13 @@
         <v>135000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5711,7 +6061,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5723,13 +6073,13 @@
         <v>135000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5741,7 +6091,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" ref="D7" si="2">"/img/dong-vat/DV_"&amp;B7&amp;".jpg"</f>
@@ -5755,13 +6105,13 @@
         <v>170000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5773,7 +6123,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ref="D8" si="3">"/img/dong-vat/DV_"&amp;B8&amp;".jpg"</f>
@@ -5787,13 +6137,13 @@
         <v>170000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5805,7 +6155,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ref="D9:D10" si="4">"/img/dong-vat/DV_"&amp;B9&amp;".jpg"</f>
@@ -5819,13 +6169,13 @@
         <v>135000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5837,7 +6187,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -5851,13 +6201,13 @@
         <v>170000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J10" s="5">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -5869,7 +6219,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" ref="D11" si="5">"/img/dong-vat/DV_"&amp;B11&amp;".jpg"</f>
@@ -5881,7 +6231,7 @@
         <v>320000</v>
       </c>
       <c r="L11" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5893,7 +6243,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ref="D12" si="6">"/img/dong-vat/DV_"&amp;B12&amp;".jpg"</f>
@@ -5905,7 +6255,7 @@
         <v>205000</v>
       </c>
       <c r="L12" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5917,7 +6267,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" ref="D13" si="7">"/img/dong-vat/DV_"&amp;B13&amp;".jpg"</f>
@@ -5933,7 +6283,7 @@
         <v>175000</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5945,10 +6295,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" ref="D14" si="8">"/img/dong-vat/DV_"&amp;B14&amp;".jpg"</f>
+        <f t="shared" ref="D14:D15" si="8">"/img/dong-vat/DV_"&amp;B14&amp;".jpg"</f>
         <v>/img/dong-vat/DV_12.jpg</v>
       </c>
       <c r="E14" s="1">
@@ -5961,13 +6311,33 @@
         <v>175000</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>/img/dong-vat/DV_13.jpg</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>175000</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
@@ -6143,7 +6513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6269,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/hoat-hinh/HH_"&amp;B3&amp;".jpg"</f>
@@ -6283,13 +6653,13 @@
         <v>145000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6301,7 +6671,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ref="D4:D7" si="1">"/img/hoat-hinh/HH_"&amp;B4&amp;".jpg"</f>
@@ -6313,13 +6683,13 @@
         <v>135000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -6331,7 +6701,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6345,13 +6715,13 @@
         <v>145000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6363,7 +6733,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6377,13 +6747,13 @@
         <v>135000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6395,7 +6765,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6409,13 +6779,13 @@
         <v>145000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6427,7 +6797,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ref="D8:D9" si="2">"/img/hoat-hinh/HH_"&amp;B8&amp;".jpg"</f>
@@ -6441,13 +6811,13 @@
         <v>145000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6459,7 +6829,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6473,13 +6843,13 @@
         <v>165000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6491,7 +6861,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" ref="D10" si="3">"/img/hoat-hinh/HH_"&amp;B10&amp;".jpg"</f>
@@ -6505,13 +6875,13 @@
         <v>165000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J10" s="5">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6523,7 +6893,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" ref="D11" si="4">"/img/hoat-hinh/HH_"&amp;B11&amp;".jpg"</f>
@@ -6537,7 +6907,7 @@
         <v>165000</v>
       </c>
       <c r="L11" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:12">

--- a/data-excel/Tranh-so-hoa-1.xlsx
+++ b/data-excel/Tranh-so-hoa-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="phat" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="198">
   <si>
     <t>Tên</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Tình yêu 01</t>
   </si>
   <si>
-    <t>Nàng thơ 01</t>
-  </si>
-  <si>
     <t>Mẹ và bé 01</t>
   </si>
   <si>
@@ -144,24 +141,12 @@
     <t>Đôi chim</t>
   </si>
   <si>
-    <t>Nàng thơ 02</t>
-  </si>
-  <si>
-    <t>Nàng thơ 03</t>
-  </si>
-  <si>
     <t>Mẹ thiên nhiên</t>
   </si>
   <si>
     <t>Nàng dâu xứ Trung</t>
   </si>
   <si>
-    <t>Nàng thơ 04</t>
-  </si>
-  <si>
-    <t>Nàng thơ 05</t>
-  </si>
-  <si>
     <t>Phong cảnh mùa thu</t>
   </si>
   <si>
@@ -616,6 +601,33 @@
   </si>
   <si>
     <t>Vua hải tặc</t>
+  </si>
+  <si>
+    <t>KM107</t>
+  </si>
+  <si>
+    <t>KM108</t>
+  </si>
+  <si>
+    <t>Hoa Lavender</t>
+  </si>
+  <si>
+    <t>KM109</t>
+  </si>
+  <si>
+    <t>KM110</t>
+  </si>
+  <si>
+    <t>Nàng thơ</t>
+  </si>
+  <si>
+    <t>KM111</t>
+  </si>
+  <si>
+    <t>Piano</t>
+  </si>
+  <si>
+    <t>KM113</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
@@ -1032,16 +1044,16 @@
         <v>13</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1068,16 +1080,16 @@
         <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1103,13 +1115,13 @@
         <v>175000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1121,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1137,13 +1149,13 @@
         <v>175000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1155,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1171,13 +1183,13 @@
         <v>175000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1189,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1203,13 +1215,13 @@
         <v>200000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1221,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1237,13 +1249,13 @@
         <v>175000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1255,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1271,13 +1283,13 @@
         <v>175000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1289,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1303,13 +1315,13 @@
         <v>200000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1321,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1335,13 +1347,13 @@
         <v>200000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J10" s="5">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1353,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1366,7 +1378,7 @@
       </c>
       <c r="I11" s="5"/>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1378,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ref="D12:D13" si="2">"/img/phat/P_"&amp;B12&amp;".jpg"</f>
@@ -1395,7 +1407,7 @@
       </c>
       <c r="I12" s="5"/>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1407,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1424,7 +1436,7 @@
       </c>
       <c r="I13" s="5"/>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1436,7 +1448,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ref="D14" si="3">"/img/phat/P_"&amp;B14&amp;".jpg"</f>
@@ -1453,7 +1465,7 @@
       </c>
       <c r="I14" s="5"/>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1465,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" ref="D15:D18" si="4">"/img/phat/P_"&amp;B15&amp;".jpg"</f>
@@ -1480,7 +1492,7 @@
       </c>
       <c r="I15" s="5"/>
       <c r="L15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="10" customFormat="1">
@@ -1492,7 +1504,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D16" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1505,7 +1517,7 @@
         <v>200000</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1">
@@ -1517,7 +1529,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D17" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1530,7 +1542,7 @@
         <v>200000</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1542,7 +1554,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D18" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1555,7 +1567,7 @@
         <v>200000</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1848,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/cung-hoang-dao/CHD_"&amp;B3&amp;".jpg"</f>
@@ -1860,13 +1872,13 @@
         <v>200000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1878,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>"/img/cung-hoang-dao/CHD_"&amp;B4&amp;".jpg"</f>
@@ -1890,13 +1902,13 @@
         <v>200000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1908,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>"/img/cung-hoang-dao/CHD_"&amp;B5&amp;".jpg"</f>
@@ -1920,13 +1932,13 @@
         <v>200000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2183,7 +2195,7 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:2">
@@ -2205,7 +2217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2344,13 +2358,13 @@
         <v>130000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2358,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B30" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B31" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2376,13 +2390,13 @@
         <v>175000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2408,13 +2422,13 @@
         <v>135000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2439,13 +2453,13 @@
         <v>135000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2457,7 +2471,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2470,13 +2484,13 @@
         <v>135000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2488,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2501,13 +2515,13 @@
         <v>175000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2519,7 +2533,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2532,13 +2546,13 @@
         <v>135000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2550,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" ref="D10" si="2">"/img/phong-canh/PC_"&amp;B10&amp;".jpg"</f>
@@ -2563,13 +2577,13 @@
         <v>180000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J10" s="5">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2581,7 +2595,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" ref="D11" si="3">"/img/phong-canh/PC_"&amp;B11&amp;".jpg"</f>
@@ -2594,7 +2608,7 @@
         <v>130000</v>
       </c>
       <c r="L11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2606,7 +2620,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ref="D12" si="4">"/img/phong-canh/PC_"&amp;B12&amp;".jpg"</f>
@@ -2619,7 +2633,7 @@
         <v>130000</v>
       </c>
       <c r="L12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2631,7 +2645,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" ref="D13" si="5">"/img/phong-canh/PC_"&amp;B13&amp;".jpg"</f>
@@ -2644,7 +2658,7 @@
         <v>135000</v>
       </c>
       <c r="L13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2656,7 +2670,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ref="D14" si="6">"/img/phong-canh/PC_"&amp;B14&amp;".jpg"</f>
@@ -2669,7 +2683,7 @@
         <v>130000</v>
       </c>
       <c r="L14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2681,7 +2695,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" ref="D15" si="7">"/img/phong-canh/PC_"&amp;B15&amp;".jpg"</f>
@@ -2694,7 +2708,7 @@
         <v>175000</v>
       </c>
       <c r="L15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2706,7 +2720,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" ref="D16:D17" si="8">"/img/phong-canh/PC_"&amp;B16&amp;".jpg"</f>
@@ -2717,7 +2731,7 @@
         <v>180000</v>
       </c>
       <c r="L16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2729,7 +2743,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="8"/>
@@ -2742,7 +2756,7 @@
         <v>180000</v>
       </c>
       <c r="L17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2754,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" ref="D18" si="9">"/img/phong-canh/PC_"&amp;B18&amp;".jpg"</f>
@@ -2765,7 +2779,7 @@
         <v>135000</v>
       </c>
       <c r="L18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2777,7 +2791,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" ref="D19" si="10">"/img/phong-canh/PC_"&amp;B19&amp;".jpg"</f>
@@ -2793,7 +2807,7 @@
         <v>175000</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2805,10 +2819,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" ref="D20:D30" si="11">"/img/phong-canh/PC_"&amp;B20&amp;".jpg"</f>
+        <f t="shared" ref="D20:D31" si="11">"/img/phong-canh/PC_"&amp;B20&amp;".jpg"</f>
         <v>/img/phong-canh/PC_18.jpg</v>
       </c>
       <c r="E20">
@@ -2821,7 +2835,7 @@
         <v>175000</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2833,7 +2847,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2846,7 +2860,7 @@
         <v>175000</v>
       </c>
       <c r="L21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2858,7 +2872,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2871,7 +2885,7 @@
         <v>175000</v>
       </c>
       <c r="L22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2883,7 +2897,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2893,10 +2907,10 @@
         <v>15</v>
       </c>
       <c r="G23">
-        <v>135000</v>
+        <v>175000</v>
       </c>
       <c r="L23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2908,7 +2922,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2921,7 +2935,7 @@
         <v>175000</v>
       </c>
       <c r="L24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2933,7 +2947,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2946,7 +2960,7 @@
         <v>175000</v>
       </c>
       <c r="L25" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2958,7 +2972,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2971,7 +2985,7 @@
         <v>175000</v>
       </c>
       <c r="L26" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2983,7 +2997,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="11"/>
@@ -2996,7 +3010,7 @@
         <v>175000</v>
       </c>
       <c r="L27" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3008,7 +3022,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="11"/>
@@ -3021,7 +3035,7 @@
         <v>175000</v>
       </c>
       <c r="L28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3033,7 +3047,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="11"/>
@@ -3046,7 +3060,7 @@
         <v>175000</v>
       </c>
       <c r="L29" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3058,7 +3072,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="11"/>
@@ -3071,12 +3085,14 @@
         <v>175000</v>
       </c>
       <c r="L30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:12">
@@ -3305,10 +3321,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -3318,13 +3334,13 @@
         <v>125000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3336,10 +3352,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3349,13 +3365,13 @@
         <v>125000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3792,13 +3808,13 @@
         <v>135000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3806,11 +3822,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B17" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B18" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ref="D4:D6" si="1">"/img/hoa/H_"&amp;B4&amp;".jpg"</f>
@@ -3818,19 +3834,19 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>135000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3842,7 +3858,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3856,13 +3872,13 @@
         <v>135000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3874,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3888,13 +3904,13 @@
         <v>135000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3906,7 +3922,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" ref="D7:D8" si="2">"/img/hoa/H_"&amp;B7&amp;".jpg"</f>
@@ -3914,19 +3930,19 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>135000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3938,7 +3954,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3950,13 +3966,13 @@
         <v>135000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3968,7 +3984,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ref="D9" si="3">"/img/hoa/H_"&amp;B9&amp;".jpg"</f>
@@ -3982,13 +3998,13 @@
         <v>135000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4000,7 +4016,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B10&amp;".jpg"</f>
@@ -4012,13 +4028,13 @@
         <v>185000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J10" s="5">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
@@ -4030,7 +4046,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B11&amp;".jpg"</f>
@@ -4046,7 +4062,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4058,7 +4074,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D12" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B12&amp;".jpg"</f>
@@ -4076,7 +4092,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4088,7 +4104,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B13&amp;".jpg"</f>
@@ -4106,7 +4122,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4118,7 +4134,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" ref="D14" si="4">"/img/hoa/H_"&amp;B14&amp;".jpg"</f>
@@ -4132,7 +4148,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -4144,7 +4160,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B15&amp;".jpg"</f>
@@ -4162,7 +4178,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -4174,7 +4190,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B16&amp;".jpg"</f>
@@ -4189,7 +4205,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="L16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -4201,7 +4217,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>"/img/hoa/H_"&amp;B17&amp;".jpg"</f>
@@ -4216,15 +4232,35 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="L17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="1" t="str">
+        <f>"/img/hoa/H_"&amp;B18&amp;".jpg"</f>
+        <v>/img/hoa/H_16.jpg</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>175000</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
@@ -4429,7 +4465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4554,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/hoa-sen/HS_"&amp;B3&amp;".jpg"</f>
@@ -4566,13 +4604,13 @@
         <v>185000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4584,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>"/img/hoa-sen/HS_"&amp;B4&amp;".jpg"</f>
@@ -4600,13 +4638,13 @@
         <v>175000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4618,7 +4656,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>"/img/hoa-sen/HS_"&amp;B5&amp;".jpg"</f>
@@ -4634,13 +4672,13 @@
         <v>175000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4648,14 +4686,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B7" si="0">ROW()-2</f>
+        <f t="shared" ref="B6:B8" si="0">ROW()-2</f>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" ref="D6:D7" si="1">"/img/hoa-sen/HS_"&amp;B6&amp;".jpg"</f>
+        <f t="shared" ref="D6:D8" si="1">"/img/hoa-sen/HS_"&amp;B6&amp;".jpg"</f>
         <v>/img/hoa-sen/HS_4.jpg</v>
       </c>
       <c r="E6" s="1"/>
@@ -4666,7 +4704,7 @@
         <v>165000</v>
       </c>
       <c r="L6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4678,7 +4716,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4692,16 +4730,34 @@
         <v>165000</v>
       </c>
       <c r="L7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/img/hoa-sen/HS_6.jpg</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>175000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
@@ -5053,13 +5109,13 @@
         <v>120000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5083,13 +5139,13 @@
         <v>145000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5432,11 +5488,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B9" si="0">ROW()-2</f>
+        <f t="shared" ref="B3:B11" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D8" si="1">"/img/nang-tho/NT_"&amp;B3&amp;".jpg"</f>
@@ -5450,13 +5506,13 @@
         <v>135000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5468,7 +5524,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5480,13 +5536,13 @@
         <v>135000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5498,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5512,13 +5568,13 @@
         <v>135000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5530,7 +5586,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5544,13 +5600,13 @@
         <v>135000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5562,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5576,13 +5632,13 @@
         <v>135000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5594,7 +5650,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5608,13 +5664,13 @@
         <v>135000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5626,10 +5682,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" ref="D9" si="2">"/img/nang-tho/NT_"&amp;B9&amp;".jpg"</f>
+        <f t="shared" ref="D9:D11" si="2">"/img/nang-tho/NT_"&amp;B9&amp;".jpg"</f>
         <v>/img/nang-tho/NT_7.jpg</v>
       </c>
       <c r="E9" s="1">
@@ -5642,24 +5698,73 @@
         <v>175000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/img/nang-tho/NT_8.jpg</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>175000</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="5">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/img/nang-tho/NT_9.jpg</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>175000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -5969,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/dong-vat/DV_"&amp;B3&amp;".jpg"</f>
@@ -5983,13 +6088,13 @@
         <v>135000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5997,11 +6102,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B15" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B17" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ref="D4:D6" si="1">"/img/dong-vat/DV_"&amp;B4&amp;".jpg"</f>
@@ -6013,13 +6118,13 @@
         <v>180000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -6031,7 +6136,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6043,13 +6148,13 @@
         <v>135000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6061,7 +6166,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6073,13 +6178,13 @@
         <v>135000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6091,7 +6196,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" ref="D7" si="2">"/img/dong-vat/DV_"&amp;B7&amp;".jpg"</f>
@@ -6105,13 +6210,13 @@
         <v>170000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6123,7 +6228,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ref="D8" si="3">"/img/dong-vat/DV_"&amp;B8&amp;".jpg"</f>
@@ -6137,13 +6242,13 @@
         <v>170000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6155,7 +6260,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ref="D9:D10" si="4">"/img/dong-vat/DV_"&amp;B9&amp;".jpg"</f>
@@ -6169,13 +6274,13 @@
         <v>135000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6187,7 +6292,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="4"/>
@@ -6201,13 +6306,13 @@
         <v>170000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J10" s="5">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6219,7 +6324,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" ref="D11" si="5">"/img/dong-vat/DV_"&amp;B11&amp;".jpg"</f>
@@ -6231,7 +6336,7 @@
         <v>320000</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6243,7 +6348,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ref="D12" si="6">"/img/dong-vat/DV_"&amp;B12&amp;".jpg"</f>
@@ -6255,7 +6360,7 @@
         <v>205000</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6267,7 +6372,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" ref="D13" si="7">"/img/dong-vat/DV_"&amp;B13&amp;".jpg"</f>
@@ -6283,7 +6388,7 @@
         <v>175000</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6295,10 +6400,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" ref="D14:D15" si="8">"/img/dong-vat/DV_"&amp;B14&amp;".jpg"</f>
+        <f t="shared" ref="D14:D17" si="8">"/img/dong-vat/DV_"&amp;B14&amp;".jpg"</f>
         <v>/img/dong-vat/DV_12.jpg</v>
       </c>
       <c r="E14" s="1">
@@ -6311,7 +6416,7 @@
         <v>175000</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6323,7 +6428,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6336,90 +6441,130 @@
         <v>175000</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>/img/dong-vat/DV_14.jpg</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>175000</v>
+      </c>
+      <c r="L16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>/img/dong-vat/DV_15.jpg</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>175000</v>
+      </c>
+      <c r="L17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="F32" s="1"/>
@@ -6513,7 +6658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6639,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>"/img/hoat-hinh/HH_"&amp;B3&amp;".jpg"</f>
@@ -6653,13 +6798,13 @@
         <v>145000</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6671,7 +6816,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ref="D4:D7" si="1">"/img/hoat-hinh/HH_"&amp;B4&amp;".jpg"</f>
@@ -6683,13 +6828,13 @@
         <v>135000</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -6701,7 +6846,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6715,13 +6860,13 @@
         <v>145000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6733,7 +6878,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6747,13 +6892,13 @@
         <v>135000</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6765,7 +6910,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6779,13 +6924,13 @@
         <v>145000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6797,7 +6942,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ref="D8:D9" si="2">"/img/hoat-hinh/HH_"&amp;B8&amp;".jpg"</f>
@@ -6811,13 +6956,13 @@
         <v>145000</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J8" s="5">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6829,7 +6974,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -6843,13 +6988,13 @@
         <v>165000</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6861,7 +7006,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" ref="D10" si="3">"/img/hoat-hinh/HH_"&amp;B10&amp;".jpg"</f>
@@ -6875,13 +7020,13 @@
         <v>165000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J10" s="5">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6893,7 +7038,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" ref="D11" si="4">"/img/hoat-hinh/HH_"&amp;B11&amp;".jpg"</f>
@@ -6907,7 +7052,7 @@
         <v>165000</v>
       </c>
       <c r="L11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:12">
